--- a/sell.xlsx
+++ b/sell.xlsx
@@ -20,19 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="31">
-  <si>
-    <t xml:space="preserve">Currency</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EstimateStatus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EstimateValue</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="32">
   <si>
     <t xml:space="preserve">Euro Members-EUR</t>
   </si>
@@ -40,7 +28,7 @@
     <t xml:space="preserve"> - ( Cardano )</t>
   </si>
   <si>
-    <t xml:space="preserve">NotVisible</t>
+    <t xml:space="preserve">Failed</t>
   </si>
   <si>
     <t xml:space="preserve"> - ( Algorand )</t>
@@ -55,19 +43,19 @@
     <t xml:space="preserve">Success</t>
   </si>
   <si>
-    <t xml:space="preserve">You get ~1.9582424980272726 EUR for 0.01 BCH</t>
+    <t xml:space="preserve">You get ~1.9049616783437813 EUR for 0.01 BCH</t>
   </si>
   <si>
     <t xml:space="preserve"> - ( Binance Smart Chain )</t>
   </si>
   <si>
-    <t xml:space="preserve">You get ~4.056032608352181 EUR for 0.01 BNB</t>
+    <t xml:space="preserve">You get ~4.121344273383446 EUR for 0.01 BNB</t>
   </si>
   <si>
     <t xml:space="preserve"> - ( Bitcoin )</t>
   </si>
   <si>
-    <t xml:space="preserve">You get ~998.1337430546065 EUR for 0.01 BTC</t>
+    <t xml:space="preserve">You get ~986.7071919753048 EUR for 0.01 BTC</t>
   </si>
   <si>
     <t xml:space="preserve"> - ( Celo )</t>
@@ -79,7 +67,7 @@
     <t xml:space="preserve"> - ( Ethereum )</t>
   </si>
   <si>
-    <t xml:space="preserve">You get ~29.806904877201667 EUR for 0.01 ETH</t>
+    <t xml:space="preserve">You get ~28.13702161368866 EUR for 0.01 ETH</t>
   </si>
   <si>
     <t xml:space="preserve"> - ( Litecoin )</t>
@@ -113,6 +101,21 @@
   </si>
   <si>
     <t xml:space="preserve">Andorra-EUR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You get ~1.9008531980209766 EUR for 0.01 BCH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You get ~4.124932905175609 EUR for 0.01 BNB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You get ~987.8381163812871 EUR for 0.01 BTC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You get ~28.19834033712365 EUR for 0.01 ETH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error</t>
   </si>
 </sst>
 </file>
@@ -210,18 +213,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:D52"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F6" activeCellId="0" sqref="F6"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.50390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="40.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="30.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="34.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="46.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="22.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="46.06"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -234,383 +237,590 @@
       <c r="C1" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="0" t="s">
-        <v>7</v>
-      </c>
       <c r="C3" s="0" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="D4" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B5" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="0" t="s">
         <v>9</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C9" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="D9" s="0" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C34" s="0" t="s">
         <v>6</v>
+      </c>
+      <c r="D34" s="0" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D35" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D36" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C37" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C38" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C39" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D39" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C40" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C41" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C42" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C43" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B44" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C44" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B45" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C45" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B46" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C46" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B47" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C47" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B48" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C48" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B49" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C49" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B50" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C50" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B51" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C51" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B52" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C52" s="0" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
